--- a/similarities/split_global/harmonic_similarity_timestamps_13.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F#', 'E', 'F#', 'B', 'E/5', 'B']]</t>
+          <t>['Ab:7', 'Eb', 'Bb:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'C:maj', 'D:maj', 'G:maj', 'C:maj', 'G/3']]</t>
+          <t>['A:7', 'E', 'B:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:43.984965', '0:01:07.541609')]</t>
+          <t>('0:00:22.860000', '0:00:38.770000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:33.079000', '0:00:42.351000')]</t>
+          <t>('0:00:22.457415', '0:00:31.617687')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=43.984965']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=22.86</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=33.079']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=22.457415</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
+          <t>('0:01:10.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:44.300000', '0:01:07.100000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=1.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=44.3']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:9', 'B:maj/F#']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'B:9', 'E']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:02.440000')]</t>
+          <t>('0:00:05.840000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:33.711833', '0:00:45.368251')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=33.711833']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:01:02.748299', '0:01:07.543219')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:03:31.700000', '0:03:34.600000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=62.748299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=211.7</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:15.865600')]</t>
+          <t>('0:00:07.600000', '0:00:17.160000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=0.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3', 'F']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:01:04.660000', '0:01:11.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
+          <t>('0:00:40.640000', '0:00:48.100000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:17.680000', '0:01:31.180000')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=62.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=77.68']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>['A:7', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:18.100000', '0:00:44.900000')]</t>
+          <t>('0:00:38.689000', '0:00:45.633000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:25.180000')]</t>
+          <t>('0:00:58.120000', '0:01:02.720000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=18.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=58.12</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+          <t>('0:00:02.900000', '0:00:11.630000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:33', '0:00:48.220000')]</t>
+          <t>('0:00:52.580000', '0:00:59.020000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=52.58</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02.612267', '0:00:17.443474')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:01.640000', '0:00:10.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C', 'D', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:44.070000', '0:00:55.760000')]</t>
+          <t>('0:00:06.126439', '0:00:09.980952')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:00.220000', '0:02:02.360000')]</t>
+          <t>('0:00:12.446000', '0:00:16.277000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=44.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=6.126439</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=120.22']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:24.520000', '0:00:54.820000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:02:00.400000', '0:02:03.780000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=120.4</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:10.200000', '0:00:12.320000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:17.839297', '0:00:30.215532')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:53.240000', '0:01:04.220000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:00:00.360000', '0:00:03.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=53.24</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:13.860000', '0:00:18.620000'), ('0:00:00.780000', '0:00:05.980000'), ('0:02:07.600000', '0:02:12.400000')]</t>
+          <t>('0:00:55.580000', '0:01:06.200000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:37.120000', '0:00:40.060000'), ('0:00:10.260000', '0:00:15.940000'), ('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:06.726778', '0:00:14.737663')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=13.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=37.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
